--- a/Danh-sach-sinh-vien-theo-khoa.xlsx
+++ b/Danh-sach-sinh-vien-theo-khoa.xlsx
@@ -6,13 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer_Info" r:id="rId3" sheetId="1"/>
+    <sheet name="CNH" r:id="rId3" sheetId="1"/>
+    <sheet name="CK" r:id="rId4" sheetId="2"/>
+    <sheet name="CNM" r:id="rId5" sheetId="3"/>
+    <sheet name="CNOTO" r:id="rId6" sheetId="4"/>
+    <sheet name="CNTT" r:id="rId7" sheetId="5"/>
+    <sheet name="DT" r:id="rId8" sheetId="6"/>
+    <sheet name="KT" r:id="rId9" sheetId="7"/>
+    <sheet name="NN" r:id="rId10" sheetId="8"/>
+    <sheet name="QLKD" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
@@ -197,9 +205,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -237,9 +263,74 @@
         <v>9</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -263,155 +354,216 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Danh-sach-sinh-vien-theo-khoa.xlsx
+++ b/Danh-sach-sinh-vien-theo-khoa.xlsx
@@ -20,90 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
   <si>
-    <t>2017603046</t>
-  </si>
-  <si>
-    <t>Trần Văn Sơn</t>
-  </si>
-  <si>
-    <t>06/10/1999</t>
+    <t>2017603045</t>
+  </si>
+  <si>
+    <t>Nguyễn thị ngọc quỳnh</t>
+  </si>
+  <si>
+    <t>26/06/1998</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
+  </si>
+  <si>
+    <t>0335275330</t>
+  </si>
+  <si>
+    <t>quynh@gmail.com</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>2017603051</t>
+  </si>
+  <si>
+    <t>trần minh quang</t>
+  </si>
+  <si>
+    <t>16/11/2009</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Chương mỹ- Hà Tây</t>
-  </si>
-  <si>
-    <t>0335275330</t>
-  </si>
-  <si>
-    <t>tvson999@gmail.com</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2017603045</t>
-  </si>
-  <si>
-    <t>Nguyễn thị ngọc quỳnh</t>
-  </si>
-  <si>
-    <t>26/06/1999</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>quynh@gmail.com</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>2017603049</t>
-  </si>
-  <si>
-    <t>Sơn tít</t>
-  </si>
-  <si>
-    <t>30/06/2009</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>2017603050</t>
-  </si>
-  <si>
-    <t>Trần minh quang</t>
-  </si>
-  <si>
-    <t>30/06/1999</t>
-  </si>
-  <si>
-    <t>Hà tây</t>
-  </si>
-  <si>
-    <t>0333333333</t>
-  </si>
-  <si>
-    <t>quang@gmail.com</t>
+    <t>lưu xá</t>
+  </si>
+  <si>
+    <t>03333333322</t>
+  </si>
+  <si>
+    <t>quangteo@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -220,7 +187,43 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -260,142 +263,30 @@
         <v>9</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -406,6 +297,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/Danh-sach-sinh-vien-theo-khoa.xlsx
+++ b/Danh-sach-sinh-vien-theo-khoa.xlsx
@@ -20,57 +20,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
   <si>
-    <t>2017603045</t>
-  </si>
-  <si>
-    <t>Nguyễn thị ngọc quỳnh</t>
-  </si>
-  <si>
-    <t>26/06/1998</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Bắc Ninh</t>
-  </si>
-  <si>
-    <t>0335275330</t>
-  </si>
-  <si>
-    <t>quynh@gmail.com</t>
+    <t>2017603052</t>
+  </si>
+  <si>
+    <t>Phạm Hồng Thái</t>
+  </si>
+  <si>
+    <t>20/06/2020</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>nam định</t>
+  </si>
+  <si>
+    <t>0983203828</t>
+  </si>
+  <si>
+    <t>thai@gmail.com</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2017603051</t>
+  </si>
+  <si>
+    <t>trần minh quang</t>
+  </si>
+  <si>
+    <t>16/11/2009</t>
+  </si>
+  <si>
+    <t>lưu xá</t>
+  </si>
+  <si>
+    <t>03333333322</t>
+  </si>
+  <si>
+    <t>quangteo@gmail.com</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>2017603051</t>
-  </si>
-  <si>
-    <t>trần minh quang</t>
-  </si>
-  <si>
-    <t>16/11/2009</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>lưu xá</t>
-  </si>
-  <si>
-    <t>03333333322</t>
-  </si>
-  <si>
-    <t>quangteo@gmail.com</t>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -187,43 +190,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -263,33 +230,69 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Danh-sach-sinh-vien-theo-khoa.xlsx
+++ b/Danh-sach-sinh-vien-theo-khoa.xlsx
@@ -20,60 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
   <si>
-    <t>2017603052</t>
-  </si>
-  <si>
-    <t>Phạm Hồng Thái</t>
-  </si>
-  <si>
-    <t>20/06/2020</t>
+    <t>2017603000</t>
+  </si>
+  <si>
+    <t>tran van son</t>
+  </si>
+  <si>
+    <t>06/10/1999</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>nam định</t>
-  </si>
-  <si>
-    <t>0983203828</t>
-  </si>
-  <si>
-    <t>thai@gmail.com</t>
+    <t>Chương mỹ- Hà Tây</t>
+  </si>
+  <si>
+    <t>0335275330</t>
+  </si>
+  <si>
+    <t>tvson999@gmail.com</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2017603051</t>
-  </si>
-  <si>
-    <t>trần minh quang</t>
-  </si>
-  <si>
-    <t>16/11/2009</t>
-  </si>
-  <si>
-    <t>lưu xá</t>
-  </si>
-  <si>
-    <t>03333333322</t>
-  </si>
-  <si>
-    <t>quangteo@gmail.com</t>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>2017603001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trịnh Mai Anh </t>
+  </si>
+  <si>
+    <t>29/03/1999</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>0365622623</t>
+  </si>
+  <si>
+    <t>maianh293@gmail.com</t>
   </si>
   <si>
     <t>91</t>
   </si>
   <si>
-    <t>2</t>
+    <t>5000000</t>
   </si>
 </sst>
 </file>
@@ -277,22 +280,22 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Danh-sach-sinh-vien-theo-khoa.xlsx
+++ b/Danh-sach-sinh-vien-theo-khoa.xlsx
@@ -20,24 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>DANH SÁCH SINH VIÊN</t>
   </si>
   <si>
+    <t>2017603005</t>
+  </si>
+  <si>
+    <t>Lưu quang nghĩa</t>
+  </si>
+  <si>
+    <t>06/10/1999</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Điện Biên</t>
+  </si>
+  <si>
+    <t>0511551202</t>
+  </si>
+  <si>
+    <t>nghia99@gmail.com</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
     <t>2017603000</t>
   </si>
   <si>
-    <t>tran van son</t>
-  </si>
-  <si>
-    <t>06/10/1999</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Chương mỹ- Hà Tây</t>
+    <t>Trần Văn Sơn</t>
+  </si>
+  <si>
+    <t>24/06/2020</t>
+  </si>
+  <si>
+    <t>Hà nội</t>
   </si>
   <si>
     <t>0335275330</t>
@@ -49,7 +73,28 @@
     <t>72</t>
   </si>
   <si>
-    <t>2000000</t>
+    <t>-1300000</t>
+  </si>
+  <si>
+    <t>2017603002</t>
+  </si>
+  <si>
+    <t>Trần minh quang</t>
+  </si>
+  <si>
+    <t>30/11/2009</t>
+  </si>
+  <si>
+    <t>Lưu xá , hòa chính</t>
+  </si>
+  <si>
+    <t>0984352391</t>
+  </si>
+  <si>
+    <t>quangteo@gmail.com</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2017603001</t>
@@ -76,7 +121,25 @@
     <t>91</t>
   </si>
   <si>
-    <t>5000000</t>
+    <t>5990000</t>
+  </si>
+  <si>
+    <t>2017603003</t>
+  </si>
+  <si>
+    <t>Trịnh Văn  quyền</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>0333511551</t>
+  </si>
+  <si>
+    <t>quyen@gmail.com</t>
+  </si>
+  <si>
+    <t>97</t>
   </si>
 </sst>
 </file>
@@ -121,81 +184,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -238,7 +229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -256,9 +247,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -280,22 +307,116 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -323,15 +444,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
